--- a/Dermatology Description Comparison.xlsx
+++ b/Dermatology Description Comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39d0109d20b3edff/Desktop/ECE699/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39d0109d20b3edff/Desktop/ECE699/Debiased ViT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{6EAC5E59-C467-43CB-A166-0D645C7C5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33ECDEA1-11EA-4364-A3EE-219DED0F379B}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{6EAC5E59-C467-43CB-A166-0D645C7C5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D04C1C4-80DF-4E8C-997F-2FD52989F4F8}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="6840" windowWidth="25760" windowHeight="6920" xr2:uid="{612BAA3A-FECC-4D81-A166-48FF6FD19F8A}"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="12960" windowHeight="13760" xr2:uid="{612BAA3A-FECC-4D81-A166-48FF6FD19F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="text_vit32b1_metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Hyper Parameters</t>
   </si>
@@ -97,10 +97,22 @@
     <t>Skin tone + MONET most present concepts description text embedding</t>
   </si>
   <si>
-    <t xml:space="preserve">vit = 32B learning_rate = 0.001  weight_decay = 0.0001  scheduler = CosineAnnealingLR  patience = 5  grad_norm_clip = 1  </t>
-  </si>
-  <si>
     <t>no text embedding (Best)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning_rate = 0.001  optimizer = SGD  scheduler = CosineAnnealingLR  max_stop_count = 5  grad_norm_clip = 1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vit = 32B  tokenizer = bert-base-uncased  integrate_way = concatenate  optimizer = SGD_Momentum  batch_size = 32  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vit = 32B  tokenizer = CLIP  integrate_way = concatenate  optimizer = SGD_Momentum  batch_size = 32  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vit = 32B  tokenizer = bert-base-uncased  integrate_way = concatenate  optimizer = SGD_Momentum  batch_size = 8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vit = 32B  tokenizer = CLIP  integrate_way = concatenate  optimizer = SGD_Momentum  batch_size = 16  </t>
   </si>
 </sst>
 </file>
@@ -966,15 +978,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8C83F8-7002-4721-B9FB-E994B39F45D3}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="82.87890625" customWidth="1"/>
+    <col min="1" max="1" width="97.64453125" customWidth="1"/>
     <col min="2" max="2" width="8.17578125" customWidth="1"/>
     <col min="3" max="3" width="8.234375" customWidth="1"/>
     <col min="4" max="4" width="8.46875" customWidth="1"/>
@@ -1032,48 +1044,48 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>0.81230000000000002</v>
+        <v>0.80720000000000003</v>
       </c>
       <c r="C4">
-        <v>0.77080000000000004</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="D4">
-        <v>0.85229999999999995</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="E4">
-        <v>0.83460000000000001</v>
+        <v>0.81589999999999996</v>
       </c>
       <c r="F4">
-        <v>0.8014</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
-        <v>0.81159999999999999</v>
+        <v>0.80679999999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>0.8226</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="I4">
-        <v>0.78790000000000004</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="J4">
-        <v>0.86209999999999998</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="K4">
-        <v>0.86670000000000003</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="L4">
-        <v>0.82540000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="M4">
-        <v>0.82499999999999996</v>
+        <v>0.81189999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
@@ -1086,63 +1098,63 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.78669999999999995</v>
+        <v>0.7833</v>
       </c>
       <c r="C7">
-        <v>0.77780000000000005</v>
+        <v>0.77080000000000004</v>
       </c>
       <c r="D7">
         <v>0.79530000000000001</v>
       </c>
       <c r="E7">
-        <v>0.78600000000000003</v>
+        <v>0.78449999999999998</v>
       </c>
       <c r="F7">
-        <v>0.78180000000000005</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="G7">
-        <v>0.78649999999999998</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="H7">
-        <v>0.7903</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="I7">
         <v>0.72729999999999995</v>
       </c>
       <c r="J7">
-        <v>0.86209999999999998</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="K7">
-        <v>0.85709999999999997</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="L7">
-        <v>0.78690000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="M7">
-        <v>0.79469999999999996</v>
+        <v>0.81189999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>0.81059999999999999</v>
+        <v>0.79520000000000002</v>
       </c>
       <c r="C8">
-        <v>0.79859999999999998</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="D8">
-        <v>0.82210000000000005</v>
+        <v>0.80869999999999997</v>
       </c>
       <c r="E8">
-        <v>0.81269999999999998</v>
+        <v>0.79790000000000005</v>
       </c>
       <c r="F8">
-        <v>0.80559999999999998</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="G8">
-        <v>0.81040000000000001</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="H8">
         <v>0.80649999999999999</v>
@@ -1165,590 +1177,918 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.82250000000000001</v>
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0.83279999999999998</v>
       </c>
       <c r="C9">
-        <v>0.81599999999999995</v>
+        <v>0.8125</v>
       </c>
       <c r="D9">
-        <v>0.82889999999999997</v>
+        <v>0.85229999999999995</v>
       </c>
       <c r="E9">
-        <v>0.82169999999999999</v>
+        <v>0.8417</v>
       </c>
       <c r="F9">
-        <v>0.81879999999999997</v>
+        <v>0.82689999999999997</v>
       </c>
       <c r="G9">
-        <v>0.82240000000000002</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.8226</v>
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.80649999999999999</v>
       </c>
       <c r="I9">
-        <v>0.78790000000000004</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="J9">
         <v>0.86209999999999998</v>
       </c>
       <c r="K9">
-        <v>0.86670000000000003</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="L9">
-        <v>0.82540000000000002</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="M9">
-        <v>0.82499999999999996</v>
+        <v>0.80979999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.84130000000000005</v>
+        <v>0.80889999999999995</v>
       </c>
       <c r="C10">
-        <v>0.83679999999999999</v>
+        <v>0.79510000000000003</v>
       </c>
       <c r="D10">
-        <v>0.84560000000000002</v>
+        <v>0.82210000000000005</v>
       </c>
       <c r="E10">
-        <v>0.8397</v>
+        <v>0.81210000000000004</v>
       </c>
       <c r="F10">
-        <v>0.83830000000000005</v>
+        <v>0.80349999999999999</v>
       </c>
       <c r="G10">
-        <v>0.84119999999999995</v>
+        <v>0.80859999999999999</v>
       </c>
       <c r="H10">
-        <v>0.7742</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="I10">
-        <v>0.72729999999999995</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="J10">
-        <v>0.8276</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="K10">
-        <v>0.8276</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="L10">
-        <v>0.7742</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="M10">
-        <v>0.77739999999999998</v>
+        <v>0.80979999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.8226</v>
+      </c>
+      <c r="I11">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="L11">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="M11">
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.79520000000000002</v>
-      </c>
-      <c r="C13">
-        <v>0.71879999999999999</v>
-      </c>
-      <c r="D13">
-        <v>0.86909999999999998</v>
-      </c>
-      <c r="E13">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="F13">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="H13">
-        <v>0.80649999999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.75760000000000005</v>
-      </c>
-      <c r="J13">
-        <v>0.86209999999999998</v>
-      </c>
-      <c r="K13">
-        <v>0.86209999999999998</v>
-      </c>
-      <c r="L13">
-        <v>0.80649999999999999</v>
-      </c>
-      <c r="M13">
-        <v>0.80979999999999996</v>
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.8397</v>
+      </c>
+      <c r="F12">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.7742</v>
+      </c>
+      <c r="I12">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="J12">
+        <v>0.8276</v>
+      </c>
+      <c r="K12">
+        <v>0.8276</v>
+      </c>
+      <c r="L12">
+        <v>0.7742</v>
+      </c>
+      <c r="M12">
+        <v>0.77739999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.80379999999999996</v>
-      </c>
-      <c r="C14">
-        <v>0.76039999999999996</v>
-      </c>
-      <c r="D14">
-        <v>0.84560000000000002</v>
-      </c>
-      <c r="E14">
-        <v>0.82640000000000002</v>
-      </c>
-      <c r="F14">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="G14">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="H14">
-        <v>0.7581</v>
-      </c>
-      <c r="I14">
-        <v>0.72729999999999995</v>
-      </c>
-      <c r="J14">
-        <v>0.79310000000000003</v>
-      </c>
-      <c r="K14">
-        <v>0.8</v>
-      </c>
-      <c r="L14">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="M14">
-        <v>0.76019999999999999</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.79179999999999995</v>
+        <v>0.79520000000000002</v>
       </c>
       <c r="C15">
-        <v>0.75</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="D15">
-        <v>0.83220000000000005</v>
+        <v>0.86909999999999998</v>
       </c>
       <c r="E15">
-        <v>0.81200000000000006</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="F15">
-        <v>0.77980000000000005</v>
+        <v>0.77529999999999999</v>
       </c>
       <c r="G15">
-        <v>0.79110000000000003</v>
+        <v>0.79390000000000005</v>
       </c>
       <c r="H15">
-        <v>0.7742</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="I15">
         <v>0.75760000000000005</v>
       </c>
       <c r="J15">
-        <v>0.79310000000000003</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="K15">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="L15">
         <v>0.80649999999999999</v>
       </c>
-      <c r="L15">
-        <v>0.78120000000000001</v>
-      </c>
       <c r="M15">
-        <v>0.77529999999999999</v>
+        <v>0.80979999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>0.82079999999999997</v>
+        <v>0.80889999999999995</v>
       </c>
       <c r="C16">
         <v>0.81599999999999995</v>
       </c>
       <c r="D16">
-        <v>0.82550000000000001</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="E16">
-        <v>0.81879999999999997</v>
+        <v>0.79930000000000001</v>
       </c>
       <c r="F16">
-        <v>0.81740000000000002</v>
+        <v>0.80759999999999998</v>
       </c>
       <c r="G16">
-        <v>0.82069999999999999</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="H16">
+        <v>0.7742</v>
+      </c>
+      <c r="I16">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="K16">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.77529999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="C17">
+        <v>0.8125</v>
+      </c>
+      <c r="D17">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="G17">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.7903</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>0.72729999999999995</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>0.86209999999999998</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.85709999999999997</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>0.78690000000000004</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>0.79469999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="C18">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H18">
+        <v>0.7581</v>
+      </c>
+      <c r="I18">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="J18">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="K18">
+        <v>0.8</v>
+      </c>
+      <c r="L18">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="M18">
+        <v>0.76019999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0.80200000000000005</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="C19">
-        <v>0.80900000000000005</v>
+        <v>0.75690000000000002</v>
       </c>
       <c r="D19">
-        <v>0.79530000000000001</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="E19">
-        <v>0.79249999999999998</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="F19">
-        <v>0.80069999999999997</v>
+        <v>0.7913</v>
       </c>
       <c r="G19">
-        <v>0.80220000000000002</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="H19">
-        <v>0.80649999999999999</v>
+        <v>0.7742</v>
       </c>
       <c r="I19">
-        <v>0.84850000000000003</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="J19">
-        <v>0.75860000000000005</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="L19">
-        <v>0.82350000000000001</v>
+        <v>0.76670000000000005</v>
       </c>
       <c r="M19">
-        <v>0.80359999999999998</v>
+        <v>0.77949999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.77649999999999997</v>
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.8276</v>
       </c>
       <c r="C20">
-        <v>0.70830000000000004</v>
+        <v>0.8125</v>
       </c>
       <c r="D20">
         <v>0.84230000000000005</v>
       </c>
       <c r="E20">
-        <v>0.81269999999999998</v>
+        <v>0.8327</v>
       </c>
       <c r="F20">
-        <v>0.75700000000000001</v>
+        <v>0.82250000000000001</v>
       </c>
       <c r="G20">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="H20">
-        <v>0.8387</v>
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.7903</v>
       </c>
       <c r="I20">
-        <v>0.78790000000000004</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="J20">
-        <v>0.89659999999999995</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="K20">
-        <v>0.89659999999999995</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="L20">
-        <v>0.8387</v>
+        <v>0.78690000000000004</v>
       </c>
       <c r="M20">
-        <v>0.84219999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.79859999999999998</v>
-      </c>
-      <c r="C21">
-        <v>0.86109999999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.73829999999999996</v>
-      </c>
-      <c r="E21">
-        <v>0.76070000000000004</v>
-      </c>
-      <c r="F21">
-        <v>0.80779999999999996</v>
-      </c>
-      <c r="G21">
-        <v>0.79969999999999997</v>
-      </c>
-      <c r="H21">
-        <v>0.7903</v>
-      </c>
-      <c r="I21">
-        <v>0.78790000000000004</v>
-      </c>
-      <c r="J21">
-        <v>0.79310000000000003</v>
-      </c>
-      <c r="K21">
-        <v>0.8125</v>
-      </c>
-      <c r="L21">
-        <v>0.8</v>
-      </c>
-      <c r="M21">
-        <v>0.79049999999999998</v>
+        <v>0.79469999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.84130000000000005</v>
-      </c>
-      <c r="C22">
-        <v>0.79169999999999996</v>
-      </c>
-      <c r="D22">
-        <v>0.88929999999999998</v>
-      </c>
-      <c r="E22">
-        <v>0.87360000000000004</v>
-      </c>
-      <c r="F22">
-        <v>0.8306</v>
-      </c>
-      <c r="G22">
-        <v>0.84050000000000002</v>
-      </c>
-      <c r="H22">
-        <v>0.7581</v>
-      </c>
-      <c r="I22">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="J22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.8458</v>
+      </c>
+      <c r="F23">
+        <v>0.79110000000000003</v>
+      </c>
+      <c r="G23">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="H23">
+        <v>0.7742</v>
+      </c>
+      <c r="I23">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="J23">
+        <v>0.8276</v>
+      </c>
+      <c r="K23">
+        <v>0.8276</v>
+      </c>
+      <c r="L23">
+        <v>0.7742</v>
+      </c>
+      <c r="M23">
+        <v>0.77739999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="D24">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="E24">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="G24">
+        <v>0.7923</v>
+      </c>
+      <c r="H24">
+        <v>0.7258</v>
+      </c>
+      <c r="I24">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="J24">
         <v>0.86209999999999998</v>
       </c>
-      <c r="K22">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="L22">
-        <v>0.74580000000000002</v>
-      </c>
-      <c r="M22">
-        <v>0.76439999999999997</v>
+      <c r="K24">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="L24">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="M24">
+        <v>0.73409999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="C25">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D25">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="E25">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="G25">
+        <v>0.8357</v>
+      </c>
+      <c r="H25">
+        <v>0.7903</v>
+      </c>
+      <c r="I25">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="J25">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="L25">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="M25">
+        <v>0.79469999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>0.80720000000000003</v>
+        <v>0.77649999999999997</v>
       </c>
       <c r="C26">
-        <v>0.75349999999999995</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="D26">
-        <v>0.85909999999999997</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="E26">
-        <v>0.83779999999999999</v>
+        <v>0.81269999999999998</v>
       </c>
       <c r="F26">
-        <v>0.79339999999999999</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="G26">
-        <v>0.80630000000000002</v>
+        <v>0.77529999999999999</v>
       </c>
       <c r="H26">
-        <v>0.7581</v>
+        <v>0.8387</v>
       </c>
       <c r="I26">
-        <v>0.75760000000000005</v>
+        <v>0.78790000000000004</v>
       </c>
       <c r="J26">
-        <v>0.75860000000000005</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="K26">
-        <v>0.78120000000000001</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="L26">
-        <v>0.76919999999999999</v>
+        <v>0.8387</v>
       </c>
       <c r="M26">
-        <v>0.7581</v>
+        <v>0.84219999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>0.79179999999999995</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.79859999999999998</v>
       </c>
       <c r="C27">
-        <v>0.75349999999999995</v>
+        <v>0.86109999999999998</v>
       </c>
       <c r="D27">
-        <v>0.82889999999999997</v>
+        <v>0.73829999999999996</v>
       </c>
       <c r="E27">
-        <v>0.80969999999999998</v>
+        <v>0.76070000000000004</v>
       </c>
       <c r="F27">
-        <v>0.78059999999999996</v>
+        <v>0.80779999999999996</v>
       </c>
       <c r="G27">
-        <v>0.79120000000000001</v>
-      </c>
-      <c r="H27">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.7903</v>
       </c>
       <c r="I27">
-        <v>0.75760000000000005</v>
+        <v>0.78790000000000004</v>
       </c>
       <c r="J27">
-        <v>0.8276</v>
+        <v>0.79310000000000003</v>
       </c>
       <c r="K27">
-        <v>0.83330000000000004</v>
+        <v>0.8125</v>
       </c>
       <c r="L27">
-        <v>0.79369999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="M27">
-        <v>0.79259999999999997</v>
+        <v>0.79049999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C28">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="D28">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.874</v>
+      </c>
+      <c r="F28">
+        <v>0.8327</v>
+      </c>
+      <c r="G28">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.7581</v>
+      </c>
+      <c r="I28">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J28">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="K28">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="L28">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="M28">
+        <v>0.76439999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="D31">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G31">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.7581</v>
+      </c>
+      <c r="I31">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="J31">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="K31">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="M31">
+        <v>0.7581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="C32">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="E32">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="F32">
+        <v>0.80420000000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="H32">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="J32">
+        <v>0.8276</v>
+      </c>
+      <c r="K32">
+        <v>0.8387</v>
+      </c>
+      <c r="L32">
+        <v>0.8125</v>
+      </c>
+      <c r="M32">
+        <v>0.80769999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="D33">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="F33">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="G33">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="J33">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="K33">
+        <v>0.92</v>
+      </c>
+      <c r="L33">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="M33">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="C34">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="D34">
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="E34">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="G34">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.7903</v>
+      </c>
+      <c r="I34">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="J34">
+        <v>0.8276</v>
+      </c>
+      <c r="K34">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="L34">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="M34">
+        <v>0.79259999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B28">
+      <c r="B35">
         <v>0.80720000000000003</v>
       </c>
-      <c r="C28">
+      <c r="C35">
         <v>0.75</v>
       </c>
-      <c r="D28">
+      <c r="D35">
         <v>0.86240000000000006</v>
       </c>
-      <c r="E28">
+      <c r="E35">
         <v>0.84050000000000002</v>
       </c>
-      <c r="F28">
+      <c r="F35">
         <v>0.79269999999999996</v>
       </c>
-      <c r="G28">
+      <c r="G35">
         <v>0.80620000000000003</v>
       </c>
-      <c r="H28">
+      <c r="H35">
         <v>0.7742</v>
       </c>
-      <c r="I28">
+      <c r="I35">
         <v>0.72729999999999995</v>
       </c>
-      <c r="J28">
+      <c r="J35">
         <v>0.8276</v>
       </c>
-      <c r="K28">
+      <c r="K35">
         <v>0.8276</v>
       </c>
-      <c r="L28">
+      <c r="L35">
         <v>0.7742</v>
       </c>
-      <c r="M28">
+      <c r="M35">
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B29">
-        <v>0.84470000000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.76739999999999997</v>
-      </c>
-      <c r="D29">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="E29">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="F29">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="G29">
-        <v>0.84340000000000004</v>
-      </c>
-      <c r="H29">
+      <c r="B36">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="C36">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="E36">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.84</v>
+      </c>
+      <c r="H36">
         <v>0.80649999999999999</v>
       </c>
-      <c r="I29">
+      <c r="I36">
         <v>0.72729999999999995</v>
       </c>
-      <c r="J29">
+      <c r="J36">
         <v>0.89659999999999995</v>
       </c>
-      <c r="K29">
+      <c r="K36">
         <v>0.88890000000000002</v>
       </c>
-      <c r="L29">
+      <c r="L36">
         <v>0.8</v>
       </c>
-      <c r="M29">
+      <c r="M36">
         <v>0.81189999999999996</v>
       </c>
     </row>
